--- a/client/public/asserts/ADList.xlsx
+++ b/client/public/asserts/ADList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foxconn\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cdpweb\client\public\asserts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>To</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,74 +196,6 @@
   <si>
     <t>From</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017/01/01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017/01/02</t>
-  </si>
-  <si>
-    <t>2017/01/03</t>
-  </si>
-  <si>
-    <t>2017/01/04</t>
-  </si>
-  <si>
-    <t>2017/01/05</t>
-  </si>
-  <si>
-    <t>2017/01/06</t>
-  </si>
-  <si>
-    <t>2017/01/07</t>
-  </si>
-  <si>
-    <t>2017/01/08</t>
-  </si>
-  <si>
-    <t>2017/01/09</t>
-  </si>
-  <si>
-    <t>2017/01/10</t>
-  </si>
-  <si>
-    <t>2017/01/11</t>
-  </si>
-  <si>
-    <t>2017/12/01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017/12/02</t>
-  </si>
-  <si>
-    <t>2017/12/03</t>
-  </si>
-  <si>
-    <t>2017/12/04</t>
-  </si>
-  <si>
-    <t>2017/12/05</t>
-  </si>
-  <si>
-    <t>2017/12/06</t>
-  </si>
-  <si>
-    <t>2017/12/07</t>
-  </si>
-  <si>
-    <t>2017/12/08</t>
-  </si>
-  <si>
-    <t>2017/12/09</t>
-  </si>
-  <si>
-    <t>2017/12/10</t>
-  </si>
-  <si>
-    <t>2017/12/11</t>
   </si>
 </sst>
 </file>
@@ -307,14 +239,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -600,13 +535,13 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" customWidth="1"/>
     <col min="7" max="7" width="56" customWidth="1"/>
   </cols>
@@ -635,11 +570,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>64</v>
+      <c r="A2" s="3">
+        <v>42736</v>
+      </c>
+      <c r="B2" s="3">
+        <v>43070</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -658,11 +593,11 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>65</v>
+      <c r="A3" s="3">
+        <v>42737</v>
+      </c>
+      <c r="B3" s="3">
+        <v>43071</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -681,11 +616,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>66</v>
+      <c r="A4" s="3">
+        <v>42738</v>
+      </c>
+      <c r="B4" s="3">
+        <v>43072</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -704,11 +639,11 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>67</v>
+      <c r="A5" s="3">
+        <v>42739</v>
+      </c>
+      <c r="B5" s="3">
+        <v>43073</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -727,11 +662,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>68</v>
+      <c r="A6" s="3">
+        <v>42740</v>
+      </c>
+      <c r="B6" s="3">
+        <v>43074</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -750,11 +685,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>69</v>
+      <c r="A7" s="3">
+        <v>42741</v>
+      </c>
+      <c r="B7" s="3">
+        <v>43075</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -773,11 +708,11 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>70</v>
+      <c r="A8" s="3">
+        <v>42742</v>
+      </c>
+      <c r="B8" s="3">
+        <v>43076</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -796,11 +731,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>71</v>
+      <c r="A9" s="3">
+        <v>42743</v>
+      </c>
+      <c r="B9" s="3">
+        <v>43077</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -816,11 +751,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>72</v>
+      <c r="A10" s="3">
+        <v>42744</v>
+      </c>
+      <c r="B10" s="3">
+        <v>43078</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
@@ -833,11 +768,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>73</v>
+      <c r="A11" s="3">
+        <v>42745</v>
+      </c>
+      <c r="B11" s="3">
+        <v>43079</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
@@ -856,11 +791,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>74</v>
+      <c r="A12" s="3">
+        <v>42746</v>
+      </c>
+      <c r="B12" s="3">
+        <v>43080</v>
       </c>
       <c r="C12" t="s">
         <v>46</v>
